--- a/databases/1 System Database.xlsx
+++ b/databases/1 System Database.xlsx
@@ -434,7 +434,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.85546875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="13.85546875" customWidth="1" style="2" min="2" max="2"/>
@@ -553,6 +553,62 @@
           <t>Pay P1</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
@@ -560,6 +616,62 @@
           <t>Finalize P0</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -567,6 +679,62 @@
           <t>Reorg P1</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.133333333333333</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -579,6 +747,65 @@
           <t>Pay P2</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.133333333333333</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
@@ -586,6 +813,60 @@
           <t>Finalize P1</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -593,6 +874,60 @@
           <t>Reorg P2</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -605,6 +940,60 @@
           <t>Pay P3</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
@@ -612,6 +1001,60 @@
           <t>Finalize P2</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
@@ -619,6 +1062,60 @@
           <t>Reorg P3</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -631,6 +1128,60 @@
           <t>Pay P4</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
@@ -638,6 +1189,60 @@
           <t>Finalize P3</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
@@ -645,6 +1250,60 @@
           <t>Reorg P4</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -657,6 +1316,60 @@
           <t>Pay P5</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
@@ -664,6 +1377,60 @@
           <t>Finalize P4</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -671,6 +1438,60 @@
           <t>Reorg P5</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -683,6 +1504,60 @@
           <t>Pay P6</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
@@ -690,6 +1565,60 @@
           <t>Finalize P5</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
@@ -697,6 +1626,60 @@
           <t>Reorg P6</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -709,6 +1692,60 @@
           <t>Pay P7</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
@@ -716,6 +1753,60 @@
           <t>Finalize P6</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
@@ -723,6 +1814,60 @@
           <t>Reorg P7</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -735,6 +1880,60 @@
           <t>Pay P8</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
@@ -742,6 +1941,60 @@
           <t>Finalize P7</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
@@ -749,6 +2002,60 @@
           <t>Reorg P8</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -761,6 +2068,60 @@
           <t>Pay P9</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
@@ -768,6 +2129,60 @@
           <t>Finalize P8</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
@@ -775,6 +2190,60 @@
           <t>Reorg P9</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -787,6 +2256,60 @@
           <t>Pay P10</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
@@ -794,12 +2317,120 @@
           <t>Finalize P9</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
           <t>Reorg P10</t>
         </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32"/>

--- a/databases/1 System Database.xlsx
+++ b/databases/1 System Database.xlsx
@@ -554,19 +554,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -679,62 +679,6 @@
           <t>Reorg P1</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.133333333333333</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -748,10 +692,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -792,19 +736,14 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="R5" t="n">
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.133333333333333</v>
       </c>
     </row>
     <row r="6">

--- a/databases/1 System Database.xlsx
+++ b/databases/1 System Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>SysRec1</t>
   </si>
@@ -202,6 +202,120 @@
   </si>
   <si>
     <t>Period</t>
+  </si>
+  <si>
+    <t>SyRec 1</t>
+  </si>
+  <si>
+    <t>SyRec 2</t>
+  </si>
+  <si>
+    <t>SyRec 3</t>
+  </si>
+  <si>
+    <t>SyRec 4</t>
+  </si>
+  <si>
+    <t>SyRec 5</t>
+  </si>
+  <si>
+    <t>SyRec 6</t>
+  </si>
+  <si>
+    <t>SyRec 7</t>
+  </si>
+  <si>
+    <t>SyRec 8</t>
+  </si>
+  <si>
+    <t>SyRec 9</t>
+  </si>
+  <si>
+    <t>SyRec 10</t>
+  </si>
+  <si>
+    <t>SyRec 11</t>
+  </si>
+  <si>
+    <t>SyRec 12</t>
+  </si>
+  <si>
+    <t>SyRec 13</t>
+  </si>
+  <si>
+    <t>SyRec 14</t>
+  </si>
+  <si>
+    <t>SyRec 15</t>
+  </si>
+  <si>
+    <t>SyRec 16</t>
+  </si>
+  <si>
+    <t>SyRec 17</t>
+  </si>
+  <si>
+    <t>SyRec 18</t>
+  </si>
+  <si>
+    <t>SyRec 19</t>
+  </si>
+  <si>
+    <t>Valid members remaining</t>
+  </si>
+  <si>
+    <t>Premium for single member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Members defected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Members paid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Members skipped </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Members invalid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Members quit </t>
+  </si>
+  <si>
+    <t>Members reorged</t>
+  </si>
+  <si>
+    <t>Fracture debt from defections</t>
+  </si>
+  <si>
+    <t>Fracture debt from skips new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fracture debt from skips </t>
+  </si>
+  <si>
+    <t>Fracture debt from invalid new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fracture debt from invalid </t>
+  </si>
+  <si>
+    <t>Fracture debt total</t>
+  </si>
+  <si>
+    <t>Fracture debt per member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claims this period? </t>
+  </si>
+  <si>
+    <t>Refund value available for members current</t>
+  </si>
+  <si>
+    <t>Refund value available for members prior</t>
+  </si>
+  <si>
+    <t>generic total payment</t>
   </si>
 </sst>
 </file>
@@ -587,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -850,10 +964,163 @@
         <v>58</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>